--- a/output_analysis/SPREAD_16_SEC_6.0_ENERGY_1.0_EV-FACTOR_11_EV_50_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/SPREAD_16_SEC_6.0_ENERGY_1.0_EV-FACTOR_11_EV_50_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,488 +434,440 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1 21 26 51 115</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5 12 13 17 41 64 117</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>123</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13 18 27 53 67 88 93 158</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1 9 42 159 222</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>112</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F3" t="n">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2 5 9 34 123 139 227</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2 15 19 33 84</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>153</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>140</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3 6 12 16 266</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3 7 89 189</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>107</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>115</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10 17 29 30</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6 31 34 39 49 88 283</t>
-        </is>
+      <c r="D6" t="n">
+        <v>97</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4 56 105 108 165</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8 22 37 38 66</t>
-        </is>
+      <c r="D7" t="n">
+        <v>112</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" t="n">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>22 24 35 37 80</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>142</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>28</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11 28 43 61 73 78 86 101 124 131 176 231</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>204</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>39</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14 20 31 41 55 98 180</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>147</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>52 58 70 74 89 138 157</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>167</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>7 8 15 19 32 103 104</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>33</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>36 38 42 44</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>88</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>69 81 148 159 171 183 220</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>122</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>23 60 175</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>71</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>57 59 83</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>96</v>
+      </c>
+      <c r="E16" t="n">
+        <v>98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>49 54 62 76 77 107</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D17" t="n">
+        <v>96</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>29</v>
+      </c>
+      <c r="G17" t="n">
         <v>6</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4 18 29 36 73</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>98</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>98</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10 14 25 50 72</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>145</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11 23 53 54 55 67 198</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>98</v>
-      </c>
-      <c r="F10" t="n">
-        <v>131</v>
-      </c>
-      <c r="G10" t="n">
-        <v>98</v>
-      </c>
-      <c r="H10" t="n">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>35 85 91 99 100</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F11" t="n">
-        <v>113</v>
-      </c>
-      <c r="G11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H11" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>21 44 83 110 120 299</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" t="n">
-        <v>130</v>
-      </c>
-      <c r="G12" t="n">
-        <v>100</v>
-      </c>
-      <c r="H12" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>27 28 30 43 51 68 109</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>100</v>
-      </c>
-      <c r="F13" t="n">
-        <v>135</v>
-      </c>
-      <c r="G13" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>75 106 116 147 172 188</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>100</v>
-      </c>
-      <c r="F14" t="n">
-        <v>138</v>
-      </c>
-      <c r="G14" t="n">
-        <v>100</v>
-      </c>
-      <c r="H14" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>24 26 59</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>100</v>
-      </c>
-      <c r="F15" t="n">
-        <v>63</v>
-      </c>
-      <c r="G15" t="n">
-        <v>100</v>
-      </c>
-      <c r="H15" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>40 45 71 131</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>100</v>
-      </c>
-      <c r="F16" t="n">
-        <v>128</v>
-      </c>
-      <c r="G16" t="n">
-        <v>100</v>
-      </c>
-      <c r="H16" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>15</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>16 63 82 133 290</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>100</v>
-      </c>
-      <c r="F17" t="n">
-        <v>106</v>
-      </c>
-      <c r="G17" t="n">
-        <v>100</v>
-      </c>
-      <c r="H17" t="n">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
